--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/房地产业、租赁和商务服务业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/房地产业、租赁和商务服务业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,316 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392801160341984</v>
+        <v>0.410980472875958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04448009669033</v>
+        <v>0.045657624746286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.020846306606913</v>
+        <v>0.022196394304474</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000783229511919</v>
+        <v>0.00103304152853</v>
       </c>
       <c r="G2" t="n">
-        <v>0.100022176426647</v>
+        <v>0.127643240221919</v>
       </c>
       <c r="H2" t="n">
-        <v>0.020768982790239</v>
+        <v>0.024642086869861</v>
       </c>
       <c r="I2" t="n">
-        <v>0.272805542949511</v>
+        <v>0.250519364501156</v>
       </c>
       <c r="J2" t="n">
-        <v>0.607198839658016</v>
+        <v>0.589019527124042</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007114636084824</v>
+        <v>0.011665301132122</v>
       </c>
       <c r="L2" t="n">
-        <v>0.040970099973173</v>
+        <v>0.052547737916113</v>
       </c>
       <c r="M2" t="n">
-        <v>0.045556583831029</v>
+        <v>0.049049809819008</v>
       </c>
       <c r="N2" t="n">
-        <v>0.097251552466864</v>
+        <v>0.06591262398528699</v>
       </c>
       <c r="O2" t="n">
-        <v>0.018384756712538</v>
+        <v>0.020860499857479</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08617051138465601</v>
+        <v>0.089353326085958</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00656605081917</v>
+        <v>0.008301524327867</v>
       </c>
       <c r="R2" t="n">
-        <v>0.012329775455882</v>
+        <v>0.013832113577987</v>
       </c>
       <c r="S2" t="n">
-        <v>0.148200608897202</v>
+        <v>0.121503596315009</v>
       </c>
       <c r="T2" t="n">
-        <v>0.024636923136763</v>
+        <v>0.031002554023587</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000512735099481</v>
+        <v>0.000709407178622</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01501377536537</v>
+        <v>0.012727695811555</v>
       </c>
       <c r="W2" t="n">
-        <v>0.031563348940165</v>
+        <v>0.043893243235716</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000306085361394</v>
+        <v>0.000393639428979</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00571622149593</v>
+        <v>0.006555175132485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.410980472875958</v>
+        <v>0.443563027467536</v>
       </c>
       <c r="D3" t="n">
-        <v>0.045657624746286</v>
+        <v>0.047285408939819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.022196394304474</v>
+        <v>0.012830301762176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00103304152853</v>
+        <v>0.003292608159173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.127643240221919</v>
+        <v>0.123242477495939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.024642086869861</v>
+        <v>0.009806070073858</v>
       </c>
       <c r="I3" t="n">
-        <v>0.250519364501156</v>
+        <v>0.236684328996032</v>
       </c>
       <c r="J3" t="n">
-        <v>0.589019527124042</v>
+        <v>0.556436972532464</v>
       </c>
       <c r="K3" t="n">
-        <v>0.011665301132122</v>
+        <v>0.014128430018071</v>
       </c>
       <c r="L3" t="n">
-        <v>0.052547737916113</v>
+        <v>0.069282090291896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.049049809819008</v>
+        <v>0.042169351158677</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06591262398528699</v>
+        <v>0.062142002982719</v>
       </c>
       <c r="O3" t="n">
-        <v>0.020860499857479</v>
+        <v>0.02881279554012</v>
       </c>
       <c r="P3" t="n">
-        <v>0.089353326085958</v>
+        <v>0.086694256946408</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008301524327867</v>
+        <v>0.004005290553046</v>
       </c>
       <c r="R3" t="n">
-        <v>0.013832113577987</v>
+        <v>0.007598336138148</v>
       </c>
       <c r="S3" t="n">
-        <v>0.121503596315009</v>
+        <v>0.109815909094084</v>
       </c>
       <c r="T3" t="n">
-        <v>0.031002554023587</v>
+        <v>0.030987302048958</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000709407178622</v>
+        <v>5.2172390124e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.012727695811555</v>
+        <v>0.013854615456182</v>
       </c>
       <c r="W3" t="n">
-        <v>0.043893243235716</v>
+        <v>0.088448118033853</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000393639428979</v>
+        <v>0.000296428783402</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.006555175132485</v>
+        <v>0.008571705137315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.443563027467536</v>
+        <v>0.504016135035124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.047285408939819</v>
+        <v>0.053264235392168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.012830301762176</v>
+        <v>0.019947259586135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003292608159173</v>
+        <v>0.0046392170328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.123242477495939</v>
+        <v>0.132054245428336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009806070073858</v>
+        <v>0.009991500295368</v>
       </c>
       <c r="I4" t="n">
-        <v>0.236684328996032</v>
+        <v>0.200271169782055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.556436972532464</v>
+        <v>0.495983864964876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.014128430018071</v>
+        <v>0.012297754603924</v>
       </c>
       <c r="L4" t="n">
-        <v>0.069282090291896</v>
+        <v>0.0923403160464</v>
       </c>
       <c r="M4" t="n">
-        <v>0.042169351158677</v>
+        <v>0.05286045962529</v>
       </c>
       <c r="N4" t="n">
-        <v>0.062142002982719</v>
+        <v>0.069950810916481</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02881279554012</v>
+        <v>0.020924715374779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.086694256946408</v>
+        <v>0.07219634070056</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004005290553046</v>
+        <v>0.003080111738889</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007598336138148</v>
+        <v>0.010347875243443</v>
       </c>
       <c r="S4" t="n">
-        <v>0.109815909094084</v>
+        <v>0.091462109053925</v>
       </c>
       <c r="T4" t="n">
-        <v>0.030987302048958</v>
+        <v>0.039631337081676</v>
       </c>
       <c r="U4" t="n">
-        <v>5.2172390124e-05</v>
+        <v>3.2504503431e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.013854615456182</v>
+        <v>0.014566664440106</v>
       </c>
       <c r="W4" t="n">
-        <v>0.088448118033853</v>
+        <v>0.08771910598612601</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000296428783402</v>
+        <v>0.000315545282333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.008571705137315</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.504016135035124</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.053264235392168</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.019947259586135</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0046392170328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.132054245428336</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.009991500295368</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.200271169782055</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.495983864964876</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.012297754603924</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0923403160464</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.05286045962529</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.069950810916481</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.020924715374779</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.07219634070056</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.003080111738889</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.010347875243443</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.091462109053925</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.039631337081676</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.2504503431e-05</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.014566664440106</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.08771910598612601</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.000315545282333</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0.012106721885774</v>
       </c>
     </row>
